--- a/data/trans_orig/P14C26-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C26-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3301026-D7DC-4C3A-ACC4-DF7F370D7D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9D401E4-3938-4A5E-BEBF-8E8E629E4708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D0EF391-6085-482C-9E87-6F0DB09636B9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4CFD7FA0-2883-4298-8018-77A60B5DAFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -74,10 +74,10 @@
     <t>81,6%</t>
   </si>
   <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
   </si>
   <si>
     <t>75,55%</t>
@@ -92,10 +92,10 @@
     <t>78,01%</t>
   </si>
   <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,10 +104,10 @@
     <t>14,21%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
   </si>
   <si>
     <t>14,01%</t>
@@ -122,10 +122,10 @@
     <t>14,09%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,7 +137,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>20,67%</t>
+    <t>21,84%</t>
   </si>
   <si>
     <t>10,44%</t>
@@ -152,10 +152,10 @@
     <t>7,91%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,76 +167,76 @@
     <t>66,36%</t>
   </si>
   <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
   <si>
     <t>65,97%</t>
   </si>
   <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
   </si>
   <si>
     <t>66,15%</t>
   </si>
   <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
   </si>
   <si>
     <t>29,61%</t>
   </si>
   <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>28,57%</t>
+    <t>30,23%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>20,66%</t>
+    <t>20,51%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -251,16 +251,16 @@
     <t>69,83%</t>
   </si>
   <si>
-    <t>24,71%</t>
+    <t>24,01%</t>
   </si>
   <si>
     <t>57,94%</t>
   </si>
   <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>63,61%</t>
@@ -269,16 +269,16 @@
     <t>16,43%</t>
   </si>
   <si>
-    <t>64,57%</t>
+    <t>64,64%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
   </si>
   <si>
     <t>0%</t>
@@ -290,94 +290,94 @@
     <t>13,74%</t>
   </si>
   <si>
-    <t>48,26%</t>
+    <t>48,23%</t>
   </si>
   <si>
     <t>8,85%</t>
   </si>
   <si>
-    <t>45,83%</t>
+    <t>42,25%</t>
   </si>
   <si>
     <t>70,44%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
   </si>
   <si>
     <t>71,22%</t>
   </si>
   <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
   </si>
   <si>
     <t>70,89%</t>
   </si>
   <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
   </si>
   <si>
     <t>21,54%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -792,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0387FE7-06A8-4757-9ECA-8DAE48F76803}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CAEF97-6027-4B8E-82DE-4CA2CAD3B4DA}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C26-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C26-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9D401E4-3938-4A5E-BEBF-8E8E629E4708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9FA51E8-AE7B-440C-B932-15C665FE2C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4CFD7FA0-2883-4298-8018-77A60B5DAFDD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9B35450-CA10-43F3-B671-8E067F82685A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="115">
-  <si>
-    <t>Población según el tiempo de diagnóstico del hipoacusia en 2015 (Tasa respuesta: 1,61%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="114">
+  <si>
+    <t>Población según el tiempo de diagnóstico del hipoacusia en 2016 (Tasa respuesta: 1,61%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>81,6%</t>
   </si>
   <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>75,55%</t>
   </si>
   <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
   </si>
   <si>
     <t>78,01%</t>
   </si>
   <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>14,21%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,25 +137,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>21,84%</t>
+    <t>21,55%</t>
   </si>
   <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,76 +167,76 @@
     <t>66,36%</t>
   </si>
   <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
   </si>
   <si>
     <t>65,97%</t>
   </si>
   <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
   </si>
   <si>
     <t>66,15%</t>
   </si>
   <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
   </si>
   <si>
     <t>29,61%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>30,23%</t>
+    <t>29,98%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>20,51%</t>
+    <t>22,26%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -251,16 +251,16 @@
     <t>69,83%</t>
   </si>
   <si>
-    <t>24,01%</t>
+    <t>25,82%</t>
   </si>
   <si>
     <t>57,94%</t>
   </si>
   <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
   </si>
   <si>
     <t>63,61%</t>
@@ -269,16 +269,16 @@
     <t>16,43%</t>
   </si>
   <si>
-    <t>64,64%</t>
+    <t>52,72%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
   </si>
   <si>
     <t>0%</t>
@@ -290,94 +290,91 @@
     <t>13,74%</t>
   </si>
   <si>
-    <t>48,23%</t>
+    <t>58,39%</t>
   </si>
   <si>
     <t>8,85%</t>
   </si>
   <si>
-    <t>42,25%</t>
+    <t>39,22%</t>
   </si>
   <si>
     <t>70,44%</t>
   </si>
   <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
   </si>
   <si>
     <t>71,22%</t>
   </si>
   <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
   </si>
   <si>
     <t>70,89%</t>
   </si>
   <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
   </si>
   <si>
     <t>21,54%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -792,7 +789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CAEF97-6027-4B8E-82DE-4CA2CAD3B4DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA23BD8-755B-4629-BAD5-3344020F6599}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1636,13 +1633,13 @@
         <v>2828</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -1651,13 +1648,13 @@
         <v>5480</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -1666,13 +1663,13 @@
         <v>8307</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,7 +1725,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
